--- a/Plans/总体开发计划.xlsx
+++ b/Plans/总体开发计划.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="104">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -237,9 +237,6 @@
     <t>赠品分类管理</t>
   </si>
   <si>
-    <t>指导新人胡尊斌额外花费一个工作日</t>
-  </si>
-  <si>
     <t>后台管理系统更改通用表格布局与样式、增加详情展示页面</t>
   </si>
   <si>
@@ -259,6 +256,84 @@
   </si>
   <si>
     <t>生产商品遇到算法和UI的问题，花了四天时间解决</t>
+  </si>
+  <si>
+    <t>系统管理</t>
+  </si>
+  <si>
+    <t>添加企业员工</t>
+  </si>
+  <si>
+    <t>指导新人胡尊斌额外花费一个工作日，更换源代码管理工具花费一个工作日。</t>
+  </si>
+  <si>
+    <t>将单用户权限系统改为多用户</t>
+  </si>
+  <si>
+    <t>更换源代码管理工具花费一个工作日。</t>
+  </si>
+  <si>
+    <t>组合套装列表查询及删除功能</t>
+  </si>
+  <si>
+    <t>组合套餐</t>
+  </si>
+  <si>
+    <t>组合套装内容编辑</t>
+  </si>
+  <si>
+    <t>订单促销</t>
+  </si>
+  <si>
+    <t>订单促销规则列表查询及删除功能</t>
+  </si>
+  <si>
+    <t>订单促销促发条件编辑及业务逻辑</t>
+  </si>
+  <si>
+    <t>订单促销优惠方案编辑及业务逻辑</t>
+  </si>
+  <si>
+    <t>订单促销规则编辑</t>
+  </si>
+  <si>
+    <t>客户等级管理</t>
+  </si>
+  <si>
+    <t>客户等级列表查询及删除功能</t>
+  </si>
+  <si>
+    <t>客户等级编辑</t>
+  </si>
+  <si>
+    <t>商品促销</t>
+  </si>
+  <si>
+    <t>商品促销规则列表查询及删除功能</t>
+  </si>
+  <si>
+    <t>商品促销规则编辑</t>
+  </si>
+  <si>
+    <t>商品促销促发条件编辑及业务逻辑</t>
+  </si>
+  <si>
+    <t>商品促销优惠方案编辑及业务逻辑</t>
+  </si>
+  <si>
+    <t>营销管理测试</t>
+  </si>
+  <si>
+    <t>发票管理</t>
+  </si>
+  <si>
+    <t>发票列表查询及删除功能</t>
+  </si>
+  <si>
+    <t>发票编辑</t>
+  </si>
+  <si>
+    <t>多用户权限功能开发</t>
   </si>
 </sst>
 </file>
@@ -422,7 +497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -544,6 +619,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -560,7 +644,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -568,11 +652,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -878,16 +962,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.36328125" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" customWidth="1"/>
+    <col min="2" max="2" width="19.7265625" customWidth="1"/>
     <col min="3" max="3" width="32.1796875" customWidth="1"/>
     <col min="4" max="4" width="8.90625" customWidth="1"/>
     <col min="5" max="5" width="25.54296875" customWidth="1"/>
@@ -896,7 +980,7 @@
     <col min="8" max="8" width="14.90625" customWidth="1"/>
     <col min="9" max="9" width="15.26953125" customWidth="1"/>
     <col min="10" max="11" width="14.26953125" customWidth="1"/>
-    <col min="12" max="12" width="67.08984375" customWidth="1"/>
+    <col min="12" max="12" width="68.54296875" customWidth="1"/>
     <col min="13" max="13" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -904,10 +988,10 @@
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="54"/>
+      <c r="C1" s="46"/>
       <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
@@ -940,19 +1024,19 @@
       </c>
     </row>
     <row r="2" spans="1:13" s="12" customFormat="1">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="48" t="s">
         <v>41</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="48" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="14">
@@ -979,13 +1063,13 @@
       </c>
     </row>
     <row r="3" spans="1:13" s="12" customFormat="1">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
       <c r="F3" s="14">
         <v>42935</v>
       </c>
@@ -1010,13 +1094,13 @@
       </c>
     </row>
     <row r="4" spans="1:13" s="12" customFormat="1">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
       <c r="F4" s="14">
         <v>42936</v>
       </c>
@@ -1041,13 +1125,13 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="14.5" customHeight="1">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="50"/>
+      <c r="C5" s="47"/>
       <c r="D5" s="5" t="s">
         <v>19</v>
       </c>
@@ -1076,12 +1160,12 @@
       </c>
     </row>
     <row r="6" spans="1:13" s="12" customFormat="1" ht="14.5" customHeight="1">
-      <c r="A6" s="50"/>
-      <c r="B6" s="48" t="s">
+      <c r="A6" s="47"/>
+      <c r="B6" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="45" t="s">
+      <c r="C6" s="52"/>
+      <c r="D6" s="48" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="20"/>
@@ -1111,12 +1195,12 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50" t="s">
+      <c r="A7" s="47"/>
+      <c r="B7" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="46"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="49"/>
       <c r="E7" s="5"/>
       <c r="F7" s="1">
         <v>42937</v>
@@ -1142,12 +1226,12 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="50"/>
-      <c r="B8" s="50" t="s">
+      <c r="A8" s="47"/>
+      <c r="B8" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="50"/>
       <c r="E8" s="5"/>
       <c r="F8" s="1">
         <v>42941</v>
@@ -1175,12 +1259,12 @@
       </c>
     </row>
     <row r="9" spans="1:13" s="19" customFormat="1">
-      <c r="A9" s="50"/>
-      <c r="B9" s="48" t="s">
+      <c r="A9" s="47"/>
+      <c r="B9" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="45" t="s">
+      <c r="C9" s="52"/>
+      <c r="D9" s="48" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="25"/>
@@ -1210,12 +1294,12 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="50"/>
-      <c r="B10" s="50" t="s">
+      <c r="A10" s="47"/>
+      <c r="B10" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="46"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="49"/>
       <c r="E10" s="5"/>
       <c r="F10" s="1">
         <v>42940</v>
@@ -1243,15 +1327,15 @@
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="50"/>
-      <c r="B11" s="50" t="s">
+      <c r="A11" s="47"/>
+      <c r="B11" s="47" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="45" t="s">
+      <c r="D11" s="49"/>
+      <c r="E11" s="48" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="1">
@@ -1278,15 +1362,15 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="46"/>
+      <c r="E12" s="49"/>
       <c r="F12" s="1">
         <v>42955</v>
       </c>
@@ -1311,15 +1395,15 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="30" customHeight="1">
-      <c r="A13" s="50"/>
-      <c r="B13" s="50"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="46"/>
+      <c r="E13" s="49"/>
       <c r="F13" s="1">
         <v>42950</v>
       </c>
@@ -1329,30 +1413,32 @@
       <c r="H13" s="32">
         <v>42950</v>
       </c>
-      <c r="I13" s="1"/>
+      <c r="I13" s="32">
+        <v>42963</v>
+      </c>
       <c r="J13" s="2">
         <v>6</v>
       </c>
-      <c r="K13" s="2">
-        <v>0</v>
+      <c r="K13" s="34">
+        <v>8</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="M13" s="37" t="s">
-        <v>29</v>
+        <v>80</v>
+      </c>
+      <c r="M13" s="33" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="29" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A14" s="50"/>
-      <c r="B14" s="50"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="45" t="s">
+      <c r="D14" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="46"/>
+      <c r="E14" s="49"/>
       <c r="F14" s="32">
         <v>42947</v>
       </c>
@@ -1377,13 +1463,13 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="17.5" customHeight="1">
-      <c r="A15" s="50"/>
-      <c r="B15" s="50"/>
+      <c r="A15" s="47"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
       <c r="F15" s="1">
         <v>42947</v>
       </c>
@@ -1408,13 +1494,13 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="17.5" customHeight="1">
-      <c r="A16" s="50"/>
-      <c r="B16" s="50"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
       <c r="F16" s="1">
         <v>42948</v>
       </c>
@@ -1434,20 +1520,20 @@
         <v>8</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M16" s="33" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="29" customFormat="1" ht="45" customHeight="1">
-      <c r="A17" s="50"/>
-      <c r="B17" s="50"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
       <c r="F17" s="32">
         <v>42955</v>
       </c>
@@ -1457,19 +1543,25 @@
       <c r="H17" s="32">
         <v>42961</v>
       </c>
-      <c r="I17" s="32"/>
+      <c r="I17" s="32">
+        <v>42965</v>
+      </c>
       <c r="J17" s="31">
         <v>4</v>
       </c>
-      <c r="K17" s="31">
-        <v>0</v>
-      </c>
-      <c r="L17" s="35"/>
-      <c r="M17" s="37"/>
+      <c r="K17" s="34">
+        <v>5</v>
+      </c>
+      <c r="L17" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="M17" s="33" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="50"/>
-      <c r="B18" s="50"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="2" t="s">
         <v>60</v>
       </c>
@@ -1505,8 +1597,8 @@
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="50"/>
-      <c r="B19" s="50"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="2" t="s">
         <v>24</v>
       </c>
@@ -1538,762 +1630,1219 @@
       </c>
     </row>
     <row r="20" spans="1:13" s="29" customFormat="1">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="32">
+        <v>42964</v>
+      </c>
+      <c r="G20" s="32">
+        <v>42964</v>
+      </c>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="31">
+        <v>1</v>
+      </c>
+      <c r="K20" s="31">
+        <v>0</v>
+      </c>
+      <c r="L20" s="35"/>
+      <c r="M20" s="33"/>
+    </row>
+    <row r="21" spans="1:13" s="29" customFormat="1">
+      <c r="A21" s="49"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="56"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="32">
+        <v>42965</v>
+      </c>
+      <c r="G21" s="32">
+        <v>42965</v>
+      </c>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="31">
+        <v>1</v>
+      </c>
+      <c r="K21" s="31">
+        <v>0</v>
+      </c>
+      <c r="L21" s="35"/>
+      <c r="M21" s="33"/>
+    </row>
+    <row r="22" spans="1:13" s="29" customFormat="1">
+      <c r="A22" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="B22" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C22" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="51" t="s">
+      <c r="D22" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="42" t="s">
+      <c r="E22" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="32">
+      <c r="F22" s="32">
         <v>42954</v>
       </c>
-      <c r="G20" s="32">
+      <c r="G22" s="32">
         <v>42955</v>
       </c>
-      <c r="H20" s="32">
+      <c r="H22" s="32">
         <v>42954</v>
       </c>
-      <c r="I20" s="32">
+      <c r="I22" s="32">
         <v>42955</v>
       </c>
-      <c r="J20" s="31">
+      <c r="J22" s="31">
         <v>1.5</v>
       </c>
-      <c r="K20" s="31">
+      <c r="K22" s="31">
         <v>1.5</v>
       </c>
-      <c r="L20" s="35"/>
-      <c r="M20" s="33" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" s="29" customFormat="1">
-      <c r="A21" s="47"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="31" t="s">
+      <c r="L22" s="35"/>
+      <c r="M22" s="33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="29" customFormat="1">
+      <c r="A23" s="49"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="52"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="32">
+      <c r="D23" s="56"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="32">
         <v>42956</v>
       </c>
-      <c r="G21" s="32">
+      <c r="G23" s="32">
         <v>42961</v>
       </c>
-      <c r="H21" s="32">
+      <c r="H23" s="32">
         <v>42956</v>
       </c>
-      <c r="I21" s="32">
-        <v>42961</v>
-      </c>
-      <c r="J21" s="31">
-        <v>3</v>
-      </c>
-      <c r="K21" s="31">
-        <v>3</v>
-      </c>
-      <c r="L21" s="35"/>
-      <c r="M21" s="33" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" s="29" customFormat="1">
-      <c r="A22" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="31"/>
-      <c r="F22" s="32">
-        <v>42929</v>
-      </c>
-      <c r="G22" s="32">
-        <v>42933</v>
-      </c>
-      <c r="H22" s="32">
-        <v>42929</v>
-      </c>
-      <c r="I22" s="32">
-        <v>42934</v>
-      </c>
-      <c r="J22" s="31">
-        <v>3</v>
-      </c>
-      <c r="K22" s="34">
+      <c r="I23" s="32">
+        <v>42963</v>
+      </c>
+      <c r="J23" s="31">
         <v>4</v>
       </c>
-      <c r="L22" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="M22" s="33" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" s="29" customFormat="1">
-      <c r="A23" s="50"/>
-      <c r="B23" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="32">
-        <v>42940</v>
-      </c>
-      <c r="G23" s="32">
-        <v>42944</v>
-      </c>
-      <c r="H23" s="32">
-        <v>42940</v>
-      </c>
-      <c r="I23" s="32">
-        <v>42944</v>
-      </c>
-      <c r="J23" s="31">
-        <v>5</v>
-      </c>
-      <c r="K23" s="31">
-        <v>5</v>
-      </c>
-      <c r="L23" s="36"/>
+      <c r="K23" s="34">
+        <v>6</v>
+      </c>
+      <c r="L23" s="35" t="s">
+        <v>82</v>
+      </c>
       <c r="M23" s="33" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:13" s="29" customFormat="1">
-      <c r="A24" s="50"/>
-      <c r="B24" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="41"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="56"/>
+      <c r="E24" s="42"/>
       <c r="F24" s="32">
-        <v>42947</v>
+        <v>42964</v>
       </c>
       <c r="G24" s="32">
-        <v>42948</v>
-      </c>
-      <c r="H24" s="32">
-        <v>42947</v>
-      </c>
-      <c r="I24" s="32">
-        <v>42948</v>
-      </c>
+        <v>42964</v>
+      </c>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
       <c r="J24" s="31">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="K24" s="31">
-        <v>1.5</v>
-      </c>
-      <c r="L24" s="36"/>
-      <c r="M24" s="33" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" s="29" customFormat="1" ht="29" customHeight="1">
-      <c r="A25" s="50"/>
-      <c r="B25" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="53"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="43"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="35"/>
+      <c r="M24" s="33"/>
+    </row>
+    <row r="25" spans="1:13" s="29" customFormat="1">
+      <c r="A25" s="49"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="56"/>
+      <c r="E25" s="42"/>
       <c r="F25" s="32">
-        <v>42947</v>
+        <v>42964</v>
       </c>
       <c r="G25" s="32">
-        <v>42947</v>
-      </c>
-      <c r="H25" s="32">
-        <v>42947</v>
-      </c>
-      <c r="I25" s="32">
-        <v>42947</v>
-      </c>
+        <v>42968</v>
+      </c>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
       <c r="J25" s="31">
+        <v>2.5</v>
+      </c>
+      <c r="K25" s="31">
+        <v>0</v>
+      </c>
+      <c r="L25" s="35"/>
+      <c r="M25" s="33"/>
+    </row>
+    <row r="26" spans="1:13" s="29" customFormat="1">
+      <c r="A26" s="49"/>
+      <c r="B26" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="56"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="32">
+        <v>42969</v>
+      </c>
+      <c r="G26" s="32">
+        <v>42969</v>
+      </c>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="31">
         <v>0.5</v>
       </c>
-      <c r="K25" s="31">
+      <c r="K26" s="31">
+        <v>0</v>
+      </c>
+      <c r="L26" s="35"/>
+      <c r="M26" s="33"/>
+    </row>
+    <row r="27" spans="1:13" s="29" customFormat="1">
+      <c r="A27" s="49"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="56"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="32">
+        <v>42969</v>
+      </c>
+      <c r="G27" s="32">
+        <v>42969</v>
+      </c>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="31">
         <v>0.5</v>
       </c>
-      <c r="L25" s="36"/>
-      <c r="M25" s="33" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" s="29" customFormat="1" ht="29" customHeight="1">
-      <c r="A26" s="50"/>
-      <c r="B26" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="53"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="32">
-        <v>42954</v>
-      </c>
-      <c r="G26" s="32">
-        <v>42955</v>
-      </c>
-      <c r="H26" s="32">
-        <v>42954</v>
-      </c>
-      <c r="I26" s="32">
-        <v>42955</v>
-      </c>
-      <c r="J26" s="31">
-        <v>2</v>
-      </c>
-      <c r="K26" s="31">
-        <v>2</v>
-      </c>
-      <c r="L26" s="36"/>
-      <c r="M26" s="33" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" s="29" customFormat="1" ht="15.5" customHeight="1">
-      <c r="A27" s="50"/>
-      <c r="B27" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="53"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="32">
-        <v>42956</v>
-      </c>
-      <c r="G27" s="32">
-        <v>42957</v>
-      </c>
-      <c r="H27" s="32">
-        <v>42956</v>
-      </c>
-      <c r="I27" s="32">
-        <v>42957</v>
-      </c>
-      <c r="J27" s="31">
-        <v>2</v>
-      </c>
       <c r="K27" s="31">
-        <v>2</v>
-      </c>
-      <c r="L27" s="36"/>
-      <c r="M27" s="33" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="15.5" customHeight="1">
-      <c r="A28" s="50"/>
-      <c r="B28" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="30"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="35"/>
+      <c r="M27" s="33"/>
+    </row>
+    <row r="28" spans="1:13" s="29" customFormat="1">
+      <c r="A28" s="49"/>
+      <c r="B28" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="56"/>
+      <c r="E28" s="42"/>
       <c r="F28" s="32">
-        <v>42961</v>
+        <v>42970</v>
       </c>
       <c r="G28" s="32">
-        <v>42965</v>
-      </c>
-      <c r="H28" s="32">
-        <v>42961</v>
-      </c>
+        <v>42970</v>
+      </c>
+      <c r="H28" s="32"/>
       <c r="I28" s="32"/>
       <c r="J28" s="31">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K28" s="31">
         <v>0</v>
       </c>
-      <c r="L28" s="36"/>
-      <c r="M28" s="33" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="30"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="33"/>
+    </row>
+    <row r="29" spans="1:13" s="29" customFormat="1">
+      <c r="A29" s="49"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="56"/>
+      <c r="E29" s="42"/>
       <c r="F29" s="32">
-        <v>42934</v>
+        <v>42970</v>
       </c>
       <c r="G29" s="32">
-        <v>42940</v>
-      </c>
-      <c r="H29" s="32">
-        <v>42935</v>
-      </c>
-      <c r="I29" s="32">
-        <v>42940</v>
-      </c>
+        <v>42970</v>
+      </c>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
       <c r="J29" s="31">
-        <v>4</v>
-      </c>
-      <c r="K29" s="35">
-        <v>3</v>
-      </c>
-      <c r="L29" s="34"/>
-      <c r="M29" s="33" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="50"/>
-      <c r="B30" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="50" t="s">
-        <v>11</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="K29" s="31">
+        <v>0</v>
+      </c>
+      <c r="L29" s="35"/>
+      <c r="M29" s="33"/>
+    </row>
+    <row r="30" spans="1:13" s="29" customFormat="1">
+      <c r="A30" s="49"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="56"/>
+      <c r="E30" s="42"/>
       <c r="F30" s="32">
-        <v>42933</v>
+        <v>42971</v>
       </c>
       <c r="G30" s="32">
-        <v>42934</v>
-      </c>
-      <c r="H30" s="32">
-        <v>42933</v>
-      </c>
-      <c r="I30" s="32">
-        <v>42934</v>
-      </c>
+        <v>42972</v>
+      </c>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
       <c r="J30" s="31">
-        <v>2</v>
-      </c>
-      <c r="K30" s="35">
-        <v>2</v>
-      </c>
-      <c r="L30" s="34"/>
-      <c r="M30" s="33" t="s">
-        <v>28</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="K30" s="31">
+        <v>0</v>
+      </c>
+      <c r="L30" s="35"/>
+      <c r="M30" s="33"/>
     </row>
     <row r="31" spans="1:13" s="29" customFormat="1">
-      <c r="A31" s="50"/>
-      <c r="B31" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
+      <c r="A31" s="49"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="56"/>
+      <c r="E31" s="42"/>
       <c r="F31" s="32">
-        <v>42935</v>
+        <v>42972</v>
       </c>
       <c r="G31" s="32">
-        <v>42937</v>
-      </c>
-      <c r="H31" s="32">
-        <v>42935</v>
-      </c>
-      <c r="I31" s="32">
-        <v>42937</v>
-      </c>
+        <v>42975</v>
+      </c>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
       <c r="J31" s="31">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="K31" s="31">
-        <v>3</v>
-      </c>
-      <c r="L31" s="34"/>
-      <c r="M31" s="33" t="s">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L31" s="35"/>
+      <c r="M31" s="33"/>
     </row>
     <row r="32" spans="1:13" s="29" customFormat="1">
-      <c r="A32" s="50"/>
-      <c r="B32" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
+      <c r="A32" s="49"/>
+      <c r="B32" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="56"/>
+      <c r="E32" s="42"/>
       <c r="F32" s="32">
-        <v>42949</v>
+        <v>42976</v>
       </c>
       <c r="G32" s="32">
-        <v>42950</v>
-      </c>
-      <c r="H32" s="32">
-        <v>42949</v>
-      </c>
-      <c r="I32" s="32">
-        <v>42950</v>
-      </c>
+        <v>42976</v>
+      </c>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
       <c r="J32" s="31">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="K32" s="31">
-        <v>2</v>
-      </c>
-      <c r="L32" s="34"/>
-      <c r="M32" s="33" t="s">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L32" s="35"/>
+      <c r="M32" s="33"/>
     </row>
     <row r="33" spans="1:13" s="29" customFormat="1">
-      <c r="A33" s="50"/>
-      <c r="B33" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="56"/>
+      <c r="E33" s="42"/>
       <c r="F33" s="32">
-        <v>42951</v>
+        <v>42976</v>
       </c>
       <c r="G33" s="32">
-        <v>42951</v>
-      </c>
-      <c r="H33" s="32">
-        <v>42951</v>
-      </c>
-      <c r="I33" s="32">
-        <v>42951</v>
-      </c>
+        <v>42976</v>
+      </c>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
       <c r="J33" s="31">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K33" s="31">
-        <v>1</v>
-      </c>
-      <c r="L33" s="34"/>
-      <c r="M33" s="33" t="s">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L33" s="35"/>
+      <c r="M33" s="33"/>
     </row>
     <row r="34" spans="1:13" s="29" customFormat="1">
-      <c r="A34" s="50"/>
-      <c r="B34" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="49"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="30"/>
+      <c r="A34" s="49"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="56"/>
+      <c r="E34" s="42"/>
       <c r="F34" s="32">
-        <v>42940</v>
+        <v>42977</v>
       </c>
       <c r="G34" s="32">
-        <v>42940</v>
-      </c>
-      <c r="H34" s="32">
-        <v>42940</v>
-      </c>
-      <c r="I34" s="32">
-        <v>42940</v>
-      </c>
+        <v>42977</v>
+      </c>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
       <c r="J34" s="31">
         <v>1</v>
       </c>
       <c r="K34" s="31">
+        <v>0</v>
+      </c>
+      <c r="L34" s="35"/>
+      <c r="M34" s="33"/>
+    </row>
+    <row r="35" spans="1:13" s="29" customFormat="1">
+      <c r="A35" s="49"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="56"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="32">
+        <v>42978</v>
+      </c>
+      <c r="G35" s="32">
+        <v>42978</v>
+      </c>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="31">
         <v>1</v>
       </c>
-      <c r="L34" s="34"/>
-      <c r="M34" s="33" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" s="29" customFormat="1">
-      <c r="A35" s="50"/>
-      <c r="B35" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="32">
-        <v>42941</v>
-      </c>
-      <c r="G35" s="32">
-        <v>42942</v>
-      </c>
-      <c r="H35" s="32">
-        <v>42941</v>
-      </c>
-      <c r="I35" s="32">
-        <v>42942</v>
-      </c>
-      <c r="J35" s="31">
-        <v>2</v>
-      </c>
       <c r="K35" s="31">
-        <v>2</v>
-      </c>
-      <c r="L35" s="34"/>
-      <c r="M35" s="33" t="s">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L35" s="35"/>
+      <c r="M35" s="33"/>
     </row>
     <row r="36" spans="1:13" s="29" customFormat="1">
-      <c r="A36" s="50"/>
-      <c r="B36" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="31"/>
+      <c r="A36" s="49"/>
+      <c r="B36" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="56"/>
+      <c r="E36" s="45"/>
       <c r="F36" s="32">
-        <v>42947</v>
+        <v>42979</v>
       </c>
       <c r="G36" s="32">
-        <v>42947</v>
-      </c>
-      <c r="H36" s="32">
-        <v>42947</v>
-      </c>
-      <c r="I36" s="32">
-        <v>42947</v>
-      </c>
+        <v>42979</v>
+      </c>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
       <c r="J36" s="31">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K36" s="31">
-        <v>1</v>
-      </c>
-      <c r="L36" s="34"/>
-      <c r="M36" s="33" t="s">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L36" s="35"/>
+      <c r="M36" s="33"/>
     </row>
     <row r="37" spans="1:13" s="29" customFormat="1">
-      <c r="A37" s="50"/>
-      <c r="B37" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="31"/>
+      <c r="A37" s="49"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" s="56"/>
+      <c r="E37" s="45"/>
       <c r="F37" s="32">
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="G37" s="32">
-        <v>42948</v>
-      </c>
-      <c r="H37" s="32">
-        <v>42948</v>
-      </c>
-      <c r="I37" s="32">
-        <v>42948</v>
-      </c>
+        <v>42979</v>
+      </c>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
       <c r="J37" s="31">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K37" s="31">
-        <v>1</v>
-      </c>
-      <c r="L37" s="34"/>
-      <c r="M37" s="33" t="s">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L37" s="35"/>
+      <c r="M37" s="33"/>
     </row>
     <row r="38" spans="1:13" s="29" customFormat="1">
       <c r="A38" s="50"/>
-      <c r="B38" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="C38" s="50"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="31"/>
+      <c r="B38" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="52"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="45" t="s">
+        <v>9</v>
+      </c>
       <c r="F38" s="32">
-        <v>42949</v>
+        <v>42982</v>
       </c>
       <c r="G38" s="32">
-        <v>42950</v>
-      </c>
-      <c r="H38" s="32">
-        <v>42949</v>
-      </c>
-      <c r="I38" s="32">
-        <v>42950</v>
-      </c>
+        <v>42984</v>
+      </c>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
       <c r="J38" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K38" s="31">
-        <v>2</v>
-      </c>
-      <c r="L38" s="34"/>
-      <c r="M38" s="33" t="s">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L38" s="35"/>
+      <c r="M38" s="33"/>
     </row>
     <row r="39" spans="1:13" s="29" customFormat="1">
-      <c r="A39" s="50"/>
-      <c r="B39" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
+      <c r="A39" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47" t="s">
+        <v>11</v>
+      </c>
       <c r="E39" s="31"/>
       <c r="F39" s="32">
-        <v>42951</v>
+        <v>42929</v>
       </c>
       <c r="G39" s="32">
-        <v>42951</v>
+        <v>42933</v>
       </c>
       <c r="H39" s="32">
-        <v>42951</v>
+        <v>42929</v>
       </c>
       <c r="I39" s="32">
-        <v>42951</v>
+        <v>42934</v>
       </c>
       <c r="J39" s="31">
-        <v>1</v>
-      </c>
-      <c r="K39" s="31">
-        <v>1</v>
-      </c>
-      <c r="L39" s="34"/>
+        <v>3</v>
+      </c>
+      <c r="K39" s="34">
+        <v>4</v>
+      </c>
+      <c r="L39" s="36" t="s">
+        <v>34</v>
+      </c>
       <c r="M39" s="33" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:13" s="29" customFormat="1">
-      <c r="A40" s="50"/>
-      <c r="B40" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="C40" s="49"/>
-      <c r="D40" s="50"/>
+      <c r="A40" s="47"/>
+      <c r="B40" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
       <c r="E40" s="31"/>
       <c r="F40" s="32">
+        <v>42940</v>
+      </c>
+      <c r="G40" s="32">
+        <v>42944</v>
+      </c>
+      <c r="H40" s="32">
+        <v>42940</v>
+      </c>
+      <c r="I40" s="32">
+        <v>42944</v>
+      </c>
+      <c r="J40" s="31">
+        <v>5</v>
+      </c>
+      <c r="K40" s="31">
+        <v>5</v>
+      </c>
+      <c r="L40" s="36"/>
+      <c r="M40" s="33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" s="29" customFormat="1">
+      <c r="A41" s="47"/>
+      <c r="B41" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="32">
+        <v>42947</v>
+      </c>
+      <c r="G41" s="32">
+        <v>42948</v>
+      </c>
+      <c r="H41" s="32">
+        <v>42947</v>
+      </c>
+      <c r="I41" s="32">
+        <v>42948</v>
+      </c>
+      <c r="J41" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="K41" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="L41" s="36"/>
+      <c r="M41" s="33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" s="29" customFormat="1" ht="29" customHeight="1">
+      <c r="A42" s="47"/>
+      <c r="B42" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="53"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="32">
+        <v>42947</v>
+      </c>
+      <c r="G42" s="32">
+        <v>42947</v>
+      </c>
+      <c r="H42" s="32">
+        <v>42947</v>
+      </c>
+      <c r="I42" s="32">
+        <v>42947</v>
+      </c>
+      <c r="J42" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K42" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="L42" s="36"/>
+      <c r="M42" s="33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" s="29" customFormat="1" ht="29" customHeight="1">
+      <c r="A43" s="47"/>
+      <c r="B43" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="53"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="32">
         <v>42954</v>
       </c>
-      <c r="G40" s="32">
+      <c r="G43" s="32">
         <v>42955</v>
       </c>
-      <c r="H40" s="32">
+      <c r="H43" s="32">
         <v>42954</v>
       </c>
-      <c r="I40" s="32">
+      <c r="I43" s="32">
         <v>42955</v>
       </c>
-      <c r="J40" s="31">
+      <c r="J43" s="31">
         <v>2</v>
       </c>
-      <c r="K40" s="31">
+      <c r="K43" s="31">
         <v>2</v>
       </c>
-      <c r="L40" s="34"/>
-      <c r="M40" s="33" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" s="29" customFormat="1">
-      <c r="A41" s="50"/>
-      <c r="B41" s="50" t="s">
+      <c r="L43" s="36"/>
+      <c r="M43" s="33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" s="29" customFormat="1" ht="15.5" customHeight="1">
+      <c r="A44" s="47"/>
+      <c r="B44" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="53"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="32">
+        <v>42956</v>
+      </c>
+      <c r="G44" s="32">
+        <v>42957</v>
+      </c>
+      <c r="H44" s="32">
+        <v>42956</v>
+      </c>
+      <c r="I44" s="32">
+        <v>42957</v>
+      </c>
+      <c r="J44" s="31">
+        <v>2</v>
+      </c>
+      <c r="K44" s="31">
+        <v>2</v>
+      </c>
+      <c r="L44" s="36"/>
+      <c r="M44" s="33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="15.5" customHeight="1">
+      <c r="A45" s="47"/>
+      <c r="B45" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="53"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="32">
+        <v>42961</v>
+      </c>
+      <c r="G45" s="32">
+        <v>42965</v>
+      </c>
+      <c r="H45" s="32">
+        <v>42961</v>
+      </c>
+      <c r="I45" s="32"/>
+      <c r="J45" s="31">
+        <v>5</v>
+      </c>
+      <c r="K45" s="31">
+        <v>0</v>
+      </c>
+      <c r="L45" s="36"/>
+      <c r="M45" s="33"/>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="47"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="32">
+        <v>42934</v>
+      </c>
+      <c r="G46" s="32">
+        <v>42940</v>
+      </c>
+      <c r="H46" s="32">
+        <v>42935</v>
+      </c>
+      <c r="I46" s="32">
+        <v>42940</v>
+      </c>
+      <c r="J46" s="31">
+        <v>4</v>
+      </c>
+      <c r="K46" s="35">
+        <v>3</v>
+      </c>
+      <c r="L46" s="34"/>
+      <c r="M46" s="33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="47"/>
+      <c r="B47" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="E47" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="32">
+        <v>42933</v>
+      </c>
+      <c r="G47" s="32">
+        <v>42934</v>
+      </c>
+      <c r="H47" s="32">
+        <v>42933</v>
+      </c>
+      <c r="I47" s="32">
+        <v>42934</v>
+      </c>
+      <c r="J47" s="31">
+        <v>2</v>
+      </c>
+      <c r="K47" s="35">
+        <v>2</v>
+      </c>
+      <c r="L47" s="34"/>
+      <c r="M47" s="33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" s="29" customFormat="1">
+      <c r="A48" s="47"/>
+      <c r="B48" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="32">
+        <v>42935</v>
+      </c>
+      <c r="G48" s="32">
+        <v>42937</v>
+      </c>
+      <c r="H48" s="32">
+        <v>42935</v>
+      </c>
+      <c r="I48" s="32">
+        <v>42937</v>
+      </c>
+      <c r="J48" s="31">
+        <v>3</v>
+      </c>
+      <c r="K48" s="31">
+        <v>3</v>
+      </c>
+      <c r="L48" s="34"/>
+      <c r="M48" s="33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" s="29" customFormat="1">
+      <c r="A49" s="47"/>
+      <c r="B49" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="47"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="32">
+        <v>42949</v>
+      </c>
+      <c r="G49" s="32">
+        <v>42950</v>
+      </c>
+      <c r="H49" s="32">
+        <v>42949</v>
+      </c>
+      <c r="I49" s="32">
+        <v>42950</v>
+      </c>
+      <c r="J49" s="31">
+        <v>2</v>
+      </c>
+      <c r="K49" s="31">
+        <v>2</v>
+      </c>
+      <c r="L49" s="34"/>
+      <c r="M49" s="33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" s="29" customFormat="1">
+      <c r="A50" s="47"/>
+      <c r="B50" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="47"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="32">
+        <v>42951</v>
+      </c>
+      <c r="G50" s="32">
+        <v>42951</v>
+      </c>
+      <c r="H50" s="32">
+        <v>42951</v>
+      </c>
+      <c r="I50" s="32">
+        <v>42951</v>
+      </c>
+      <c r="J50" s="31">
+        <v>1</v>
+      </c>
+      <c r="K50" s="31">
+        <v>1</v>
+      </c>
+      <c r="L50" s="34"/>
+      <c r="M50" s="33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" s="29" customFormat="1">
+      <c r="A51" s="47"/>
+      <c r="B51" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="52"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="32">
+        <v>42940</v>
+      </c>
+      <c r="G51" s="32">
+        <v>42940</v>
+      </c>
+      <c r="H51" s="32">
+        <v>42940</v>
+      </c>
+      <c r="I51" s="32">
+        <v>42940</v>
+      </c>
+      <c r="J51" s="31">
+        <v>1</v>
+      </c>
+      <c r="K51" s="31">
+        <v>1</v>
+      </c>
+      <c r="L51" s="34"/>
+      <c r="M51" s="33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" s="29" customFormat="1">
+      <c r="A52" s="47"/>
+      <c r="B52" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="47"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="32">
+        <v>42941</v>
+      </c>
+      <c r="G52" s="32">
+        <v>42942</v>
+      </c>
+      <c r="H52" s="32">
+        <v>42941</v>
+      </c>
+      <c r="I52" s="32">
+        <v>42942</v>
+      </c>
+      <c r="J52" s="31">
+        <v>2</v>
+      </c>
+      <c r="K52" s="31">
+        <v>2</v>
+      </c>
+      <c r="L52" s="34"/>
+      <c r="M52" s="33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" s="29" customFormat="1">
+      <c r="A53" s="47"/>
+      <c r="B53" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" s="47"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="32">
+        <v>42947</v>
+      </c>
+      <c r="G53" s="32">
+        <v>42947</v>
+      </c>
+      <c r="H53" s="32">
+        <v>42947</v>
+      </c>
+      <c r="I53" s="32">
+        <v>42947</v>
+      </c>
+      <c r="J53" s="31">
+        <v>1</v>
+      </c>
+      <c r="K53" s="31">
+        <v>1</v>
+      </c>
+      <c r="L53" s="34"/>
+      <c r="M53" s="33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" s="29" customFormat="1">
+      <c r="A54" s="47"/>
+      <c r="B54" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" s="47"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="32">
+        <v>42948</v>
+      </c>
+      <c r="G54" s="32">
+        <v>42948</v>
+      </c>
+      <c r="H54" s="32">
+        <v>42948</v>
+      </c>
+      <c r="I54" s="32">
+        <v>42948</v>
+      </c>
+      <c r="J54" s="31">
+        <v>1</v>
+      </c>
+      <c r="K54" s="31">
+        <v>1</v>
+      </c>
+      <c r="L54" s="34"/>
+      <c r="M54" s="33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" s="29" customFormat="1">
+      <c r="A55" s="47"/>
+      <c r="B55" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="47"/>
+      <c r="D55" s="47"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="32">
+        <v>42949</v>
+      </c>
+      <c r="G55" s="32">
+        <v>42950</v>
+      </c>
+      <c r="H55" s="32">
+        <v>42949</v>
+      </c>
+      <c r="I55" s="32">
+        <v>42950</v>
+      </c>
+      <c r="J55" s="31">
+        <v>2</v>
+      </c>
+      <c r="K55" s="31">
+        <v>2</v>
+      </c>
+      <c r="L55" s="34"/>
+      <c r="M55" s="33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" s="29" customFormat="1">
+      <c r="A56" s="47"/>
+      <c r="B56" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" s="47"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="32">
+        <v>42951</v>
+      </c>
+      <c r="G56" s="32">
+        <v>42951</v>
+      </c>
+      <c r="H56" s="32">
+        <v>42951</v>
+      </c>
+      <c r="I56" s="32">
+        <v>42951</v>
+      </c>
+      <c r="J56" s="31">
+        <v>1</v>
+      </c>
+      <c r="K56" s="31">
+        <v>1</v>
+      </c>
+      <c r="L56" s="34"/>
+      <c r="M56" s="33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" s="29" customFormat="1">
+      <c r="A57" s="47"/>
+      <c r="B57" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" s="52"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="32">
+        <v>42954</v>
+      </c>
+      <c r="G57" s="32">
+        <v>42955</v>
+      </c>
+      <c r="H57" s="32">
+        <v>42954</v>
+      </c>
+      <c r="I57" s="32">
+        <v>42955</v>
+      </c>
+      <c r="J57" s="31">
+        <v>2</v>
+      </c>
+      <c r="K57" s="31">
+        <v>2</v>
+      </c>
+      <c r="L57" s="34"/>
+      <c r="M57" s="33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" s="29" customFormat="1">
+      <c r="A58" s="47"/>
+      <c r="B58" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="C58" s="47"/>
+      <c r="D58" s="47"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="32">
+        <v>42956</v>
+      </c>
+      <c r="G58" s="32">
+        <v>42957</v>
+      </c>
+      <c r="H58" s="32">
+        <v>42956</v>
+      </c>
+      <c r="I58" s="32">
+        <v>42961</v>
+      </c>
+      <c r="J58" s="31">
+        <v>2</v>
+      </c>
+      <c r="K58" s="34">
+        <v>3</v>
+      </c>
+      <c r="L58" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="32">
-        <v>42956</v>
-      </c>
-      <c r="G41" s="32">
-        <v>42957</v>
-      </c>
-      <c r="H41" s="32">
-        <v>42956</v>
-      </c>
-      <c r="I41" s="32"/>
-      <c r="J41" s="31">
-        <v>2</v>
-      </c>
-      <c r="K41" s="31">
-        <v>0</v>
-      </c>
-      <c r="L41" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="M41" s="37" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="J42">
-        <f>SUM(J2:J41)</f>
-        <v>95.5</v>
-      </c>
-      <c r="K42">
-        <f>SUM(K2:K41)</f>
-        <v>88</v>
+      <c r="M58" s="33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="J59">
+        <f>SUM(J2:J58)</f>
+        <v>113.5</v>
+      </c>
+      <c r="K59">
+        <f>SUM(K2:K58)</f>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="55">
+    <mergeCell ref="A22:A38"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D22:D38"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="A39:A45"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A46:A58"/>
+    <mergeCell ref="A5:A19"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="E47:E50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="E11:E17"/>
+    <mergeCell ref="D47:D58"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D39:D46"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B26:B27"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:B19"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D14:D17"/>
     <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="E11:E17"/>
-    <mergeCell ref="D30:D41"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D22:D29"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="A29:A41"/>
-    <mergeCell ref="A5:A19"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="A22:A28"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="D2:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Plans/总体开发计划.xlsx
+++ b/Plans/总体开发计划.xlsx
@@ -1360,16 +1360,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1378,16 +1378,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1737,8 +1737,8 @@
   <sheetPr/>
   <dimension ref="A1:M144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="K128" sqref="K128"/>
+    <sheetView tabSelected="1" topLeftCell="E109" workbookViewId="0">
+      <selection activeCell="M130" sqref="K122 L122 K123 M122 M123 M124 L123 L124 K124 K126 L125 K125 M125 M126 L126 L127 L129 L128 L130 K130 K129 K128 K127 M127 M128 M129 M130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Plans/总体开发计划.xlsx
+++ b/Plans/总体开发计划.xlsx
@@ -508,7 +508,7 @@
     <t>商品详情页选择类型与加入购物车</t>
   </si>
   <si>
-    <t>购物车商品展示 删除、数量、金额计算</t>
+    <t xml:space="preserve">购物车商品展示 删除、数量、金额计算 </t>
   </si>
 </sst>
 </file>
@@ -516,12 +516,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -566,51 +566,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -625,7 +581,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -647,40 +603,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -695,7 +627,68 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -737,7 +730,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,61 +784,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,7 +814,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,7 +832,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,31 +862,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,37 +892,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1009,36 +1002,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1065,11 +1028,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1083,11 +1044,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1109,152 +1102,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1363,32 +1356,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
@@ -1737,8 +1709,8 @@
   <sheetPr/>
   <dimension ref="A1:M144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E109" workbookViewId="0">
-      <selection activeCell="M130" sqref="K122 L122 K123 M122 M123 M124 L123 L124 K124 K126 L125 K125 M125 M126 L126 L127 L129 L128 L130 K130 K129 K128 K127 M127 M128 M129 M130"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="B128" sqref="B128:C128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3379,7 +3351,7 @@
       <c r="L70" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="M70" s="41" t="s">
+      <c r="M70" s="38" t="s">
         <v>81</v>
       </c>
     </row>
@@ -3408,7 +3380,7 @@
       <c r="J71" s="9">
         <v>2</v>
       </c>
-      <c r="K71" s="42">
+      <c r="K71" s="39">
         <v>4</v>
       </c>
       <c r="L71" s="20" t="s">
@@ -3444,7 +3416,7 @@
       <c r="K72" s="9">
         <v>2</v>
       </c>
-      <c r="L72" s="42"/>
+      <c r="L72" s="39"/>
       <c r="M72" s="21" t="s">
         <v>17</v>
       </c>
@@ -3472,7 +3444,7 @@
       <c r="J73" s="9">
         <v>2</v>
       </c>
-      <c r="K73" s="42">
+      <c r="K73" s="39">
         <v>4</v>
       </c>
       <c r="L73" s="20" t="s">
@@ -3507,7 +3479,7 @@
       <c r="J74" s="9">
         <v>1</v>
       </c>
-      <c r="K74" s="42">
+      <c r="K74" s="39">
         <v>1.5</v>
       </c>
       <c r="L74" s="20" t="s">
@@ -3540,7 +3512,7 @@
       <c r="J75" s="9">
         <v>3</v>
       </c>
-      <c r="K75" s="42">
+      <c r="K75" s="39">
         <v>5</v>
       </c>
       <c r="L75" s="20" t="s">
@@ -3643,7 +3615,7 @@
       <c r="J78" s="9">
         <v>6</v>
       </c>
-      <c r="K78" s="42">
+      <c r="K78" s="39">
         <v>8</v>
       </c>
       <c r="L78" s="22" t="s">
@@ -3740,7 +3712,7 @@
       <c r="J81" s="9">
         <v>5</v>
       </c>
-      <c r="K81" s="42">
+      <c r="K81" s="39">
         <v>8</v>
       </c>
       <c r="L81" s="22" t="s">
@@ -3773,7 +3745,7 @@
       <c r="J82" s="9">
         <v>4</v>
       </c>
-      <c r="K82" s="42">
+      <c r="K82" s="39">
         <v>5</v>
       </c>
       <c r="L82" s="22" t="s">
@@ -3810,7 +3782,7 @@
       <c r="J83" s="9">
         <v>4</v>
       </c>
-      <c r="K83" s="42">
+      <c r="K83" s="39">
         <v>6</v>
       </c>
       <c r="L83" s="22" t="s">
@@ -3915,7 +3887,7 @@
       <c r="J86" s="9">
         <v>4</v>
       </c>
-      <c r="K86" s="42">
+      <c r="K86" s="39">
         <v>6</v>
       </c>
       <c r="L86" s="22" t="s">
@@ -4339,7 +4311,7 @@
       <c r="J102" s="9">
         <v>3</v>
       </c>
-      <c r="K102" s="42">
+      <c r="K102" s="39">
         <v>4</v>
       </c>
       <c r="L102" s="20" t="s">
@@ -4563,7 +4535,7 @@
       <c r="K109" s="22">
         <v>3</v>
       </c>
-      <c r="L109" s="42"/>
+      <c r="L109" s="39"/>
       <c r="M109" s="21" t="s">
         <v>17</v>
       </c>
@@ -4598,7 +4570,7 @@
       <c r="K110" s="22">
         <v>2</v>
       </c>
-      <c r="L110" s="42"/>
+      <c r="L110" s="39"/>
       <c r="M110" s="21" t="s">
         <v>17</v>
       </c>
@@ -4629,7 +4601,7 @@
       <c r="K111" s="9">
         <v>3</v>
       </c>
-      <c r="L111" s="42"/>
+      <c r="L111" s="39"/>
       <c r="M111" s="21" t="s">
         <v>17</v>
       </c>
@@ -4660,7 +4632,7 @@
       <c r="K112" s="9">
         <v>2</v>
       </c>
-      <c r="L112" s="42"/>
+      <c r="L112" s="39"/>
       <c r="M112" s="21" t="s">
         <v>17</v>
       </c>
@@ -4691,7 +4663,7 @@
       <c r="K113" s="9">
         <v>1</v>
       </c>
-      <c r="L113" s="42"/>
+      <c r="L113" s="39"/>
       <c r="M113" s="21" t="s">
         <v>17</v>
       </c>
@@ -4722,7 +4694,7 @@
       <c r="K114" s="9">
         <v>1</v>
       </c>
-      <c r="L114" s="42"/>
+      <c r="L114" s="39"/>
       <c r="M114" s="21" t="s">
         <v>17</v>
       </c>
@@ -4753,7 +4725,7 @@
       <c r="K115" s="9">
         <v>2</v>
       </c>
-      <c r="L115" s="42"/>
+      <c r="L115" s="39"/>
       <c r="M115" s="21" t="s">
         <v>17</v>
       </c>
@@ -4784,7 +4756,7 @@
       <c r="K116" s="9">
         <v>1</v>
       </c>
-      <c r="L116" s="42"/>
+      <c r="L116" s="39"/>
       <c r="M116" s="21" t="s">
         <v>17</v>
       </c>
@@ -4815,7 +4787,7 @@
       <c r="K117" s="9">
         <v>1</v>
       </c>
-      <c r="L117" s="42"/>
+      <c r="L117" s="39"/>
       <c r="M117" s="21" t="s">
         <v>17</v>
       </c>
@@ -4846,7 +4818,7 @@
       <c r="K118" s="9">
         <v>2</v>
       </c>
-      <c r="L118" s="42"/>
+      <c r="L118" s="39"/>
       <c r="M118" s="21" t="s">
         <v>17</v>
       </c>
@@ -4877,7 +4849,7 @@
       <c r="K119" s="9">
         <v>1</v>
       </c>
-      <c r="L119" s="42"/>
+      <c r="L119" s="39"/>
       <c r="M119" s="21" t="s">
         <v>17</v>
       </c>
@@ -4908,7 +4880,7 @@
       <c r="K120" s="9">
         <v>2</v>
       </c>
-      <c r="L120" s="42"/>
+      <c r="L120" s="39"/>
       <c r="M120" s="21" t="s">
         <v>17</v>
       </c>
@@ -4936,7 +4908,7 @@
       <c r="J121" s="9">
         <v>2</v>
       </c>
-      <c r="K121" s="42">
+      <c r="K121" s="39">
         <v>3</v>
       </c>
       <c r="L121" s="22" t="s">
@@ -4950,202 +4922,202 @@
       <c r="A122" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="B122" s="38" t="s">
+      <c r="B122" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C122" s="38"/>
-      <c r="D122" s="38" t="s">
+      <c r="C122" s="8"/>
+      <c r="D122" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E122" s="38" t="s">
+      <c r="E122" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="F122" s="39">
+      <c r="F122" s="5">
         <v>42969</v>
       </c>
-      <c r="G122" s="39">
+      <c r="G122" s="5">
         <v>42969</v>
       </c>
-      <c r="H122" s="39"/>
-      <c r="I122" s="39"/>
-      <c r="J122" s="43">
+      <c r="H122" s="5"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="9">
         <v>1</v>
       </c>
-      <c r="K122" s="44"/>
-      <c r="L122" s="45"/>
-      <c r="M122" s="46"/>
+      <c r="K122" s="39"/>
+      <c r="L122" s="22"/>
+      <c r="M122" s="21"/>
     </row>
     <row r="123" customFormat="1" ht="20" customHeight="1" spans="1:13">
       <c r="A123" s="37"/>
-      <c r="B123" s="38" t="s">
+      <c r="B123" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="C123" s="38"/>
-      <c r="D123" s="38"/>
-      <c r="E123" s="38"/>
-      <c r="F123" s="39">
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="5">
         <v>42970</v>
       </c>
-      <c r="G123" s="39">
+      <c r="G123" s="5">
         <v>42970</v>
       </c>
-      <c r="H123" s="39"/>
-      <c r="I123" s="39"/>
-      <c r="J123" s="43">
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
+      <c r="J123" s="9">
         <v>1</v>
       </c>
-      <c r="K123" s="44"/>
-      <c r="L123" s="45"/>
-      <c r="M123" s="46"/>
+      <c r="K123" s="39"/>
+      <c r="L123" s="22"/>
+      <c r="M123" s="21"/>
     </row>
     <row r="124" customFormat="1" ht="20" customHeight="1" spans="1:13">
       <c r="A124" s="37"/>
-      <c r="B124" s="38" t="s">
+      <c r="B124" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="C124" s="38"/>
-      <c r="D124" s="38"/>
-      <c r="E124" s="38"/>
-      <c r="F124" s="39">
+      <c r="C124" s="8"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="5">
         <v>42971</v>
       </c>
-      <c r="G124" s="39">
+      <c r="G124" s="5">
         <v>42971</v>
       </c>
-      <c r="H124" s="39"/>
-      <c r="I124" s="39"/>
-      <c r="J124" s="43">
+      <c r="H124" s="5"/>
+      <c r="I124" s="5"/>
+      <c r="J124" s="9">
         <v>1</v>
       </c>
-      <c r="K124" s="44"/>
-      <c r="L124" s="45"/>
-      <c r="M124" s="46"/>
+      <c r="K124" s="39"/>
+      <c r="L124" s="22"/>
+      <c r="M124" s="21"/>
     </row>
     <row r="125" customFormat="1" ht="20" customHeight="1" spans="1:13">
       <c r="A125" s="37"/>
-      <c r="B125" s="38" t="s">
+      <c r="B125" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C125" s="38"/>
-      <c r="D125" s="38"/>
-      <c r="E125" s="38"/>
-      <c r="F125" s="39">
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="5">
         <v>42972</v>
       </c>
-      <c r="G125" s="39">
+      <c r="G125" s="5">
         <v>42972</v>
       </c>
-      <c r="H125" s="39"/>
-      <c r="I125" s="39"/>
-      <c r="J125" s="43">
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="9">
         <v>1</v>
       </c>
-      <c r="K125" s="44"/>
-      <c r="L125" s="45"/>
-      <c r="M125" s="46"/>
+      <c r="K125" s="39"/>
+      <c r="L125" s="22"/>
+      <c r="M125" s="21"/>
     </row>
     <row r="126" customFormat="1" ht="20" customHeight="1" spans="1:13">
       <c r="A126" s="37"/>
-      <c r="B126" s="38" t="s">
+      <c r="B126" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C126" s="38"/>
-      <c r="D126" s="38"/>
-      <c r="E126" s="38"/>
-      <c r="F126" s="39">
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="5">
         <v>42975</v>
       </c>
-      <c r="G126" s="39">
+      <c r="G126" s="5">
         <v>42975</v>
       </c>
-      <c r="H126" s="39"/>
-      <c r="I126" s="39"/>
-      <c r="J126" s="43">
+      <c r="H126" s="5"/>
+      <c r="I126" s="5"/>
+      <c r="J126" s="9">
         <v>1</v>
       </c>
-      <c r="K126" s="44"/>
-      <c r="L126" s="45"/>
-      <c r="M126" s="46"/>
+      <c r="K126" s="39"/>
+      <c r="L126" s="22"/>
+      <c r="M126" s="21"/>
     </row>
     <row r="127" customFormat="1" ht="20" customHeight="1" spans="1:13">
       <c r="A127" s="37"/>
-      <c r="B127" s="40" t="s">
+      <c r="B127" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="C127" s="40"/>
-      <c r="D127" s="38"/>
-      <c r="E127" s="38"/>
-      <c r="F127" s="39">
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="5">
         <v>42976</v>
       </c>
-      <c r="G127" s="39">
+      <c r="G127" s="5">
         <v>42976</v>
       </c>
-      <c r="H127" s="39"/>
-      <c r="I127" s="39"/>
-      <c r="J127" s="43">
+      <c r="H127" s="5"/>
+      <c r="I127" s="5"/>
+      <c r="J127" s="9">
         <v>1</v>
       </c>
-      <c r="K127" s="44"/>
-      <c r="L127" s="45"/>
-      <c r="M127" s="46"/>
+      <c r="K127" s="39"/>
+      <c r="L127" s="22"/>
+      <c r="M127" s="21"/>
     </row>
     <row r="128" customFormat="1" ht="20" customHeight="1" spans="1:13">
       <c r="A128" s="37"/>
-      <c r="B128" s="38" t="s">
+      <c r="B128" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C128" s="38"/>
-      <c r="D128" s="38"/>
-      <c r="E128" s="38"/>
-      <c r="F128" s="39">
+      <c r="C128" s="8"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="5">
         <v>42977</v>
       </c>
-      <c r="G128" s="39">
+      <c r="G128" s="5">
         <v>42977</v>
       </c>
-      <c r="H128" s="39"/>
-      <c r="I128" s="39"/>
-      <c r="J128" s="43">
+      <c r="H128" s="5"/>
+      <c r="I128" s="5"/>
+      <c r="J128" s="9">
         <v>1</v>
       </c>
-      <c r="K128" s="44"/>
-      <c r="L128" s="45"/>
-      <c r="M128" s="46"/>
+      <c r="K128" s="39"/>
+      <c r="L128" s="22"/>
+      <c r="M128" s="21"/>
     </row>
     <row r="129" customFormat="1" ht="20" customHeight="1" spans="1:13">
       <c r="A129" s="37"/>
-      <c r="B129" s="38"/>
-      <c r="C129" s="38"/>
-      <c r="D129" s="38"/>
-      <c r="E129" s="38"/>
-      <c r="F129" s="39"/>
-      <c r="G129" s="39"/>
-      <c r="H129" s="39"/>
-      <c r="I129" s="39"/>
-      <c r="J129" s="43"/>
-      <c r="K129" s="44"/>
-      <c r="L129" s="45"/>
-      <c r="M129" s="46"/>
+      <c r="B129" s="8"/>
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5"/>
+      <c r="I129" s="5"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="39"/>
+      <c r="L129" s="22"/>
+      <c r="M129" s="21"/>
     </row>
     <row r="130" customFormat="1" ht="20" customHeight="1" spans="1:13">
       <c r="A130" s="37"/>
-      <c r="B130" s="38"/>
-      <c r="C130" s="38"/>
-      <c r="D130" s="38"/>
-      <c r="E130" s="38"/>
-      <c r="F130" s="39"/>
-      <c r="G130" s="39"/>
-      <c r="H130" s="39"/>
-      <c r="I130" s="39"/>
-      <c r="J130" s="43"/>
-      <c r="K130" s="44"/>
-      <c r="L130" s="45"/>
-      <c r="M130" s="46"/>
+      <c r="B130" s="8"/>
+      <c r="C130" s="8"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="5"/>
+      <c r="I130" s="5"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="39"/>
+      <c r="L130" s="22"/>
+      <c r="M130" s="21"/>
     </row>
     <row r="131" ht="20" customHeight="1" spans="2:11">
-      <c r="B131" s="47"/>
-      <c r="C131" s="47"/>
+      <c r="B131" s="40"/>
+      <c r="C131" s="40"/>
       <c r="J131">
         <f>SUM(J2:J121)</f>
         <v>170.5</v>
@@ -5156,44 +5128,44 @@
       </c>
     </row>
     <row r="132" ht="17" customHeight="1" spans="2:3">
-      <c r="B132" s="47"/>
-      <c r="C132" s="47"/>
+      <c r="B132" s="40"/>
+      <c r="C132" s="40"/>
     </row>
     <row r="133" ht="17" customHeight="1" spans="2:3">
-      <c r="B133" s="47"/>
-      <c r="C133" s="47"/>
+      <c r="B133" s="40"/>
+      <c r="C133" s="40"/>
     </row>
     <row r="134" ht="17" customHeight="1" spans="2:3">
-      <c r="B134" s="47"/>
-      <c r="C134" s="47"/>
+      <c r="B134" s="40"/>
+      <c r="C134" s="40"/>
     </row>
     <row r="135" ht="17" customHeight="1" spans="2:3">
-      <c r="B135" s="47"/>
-      <c r="C135" s="47"/>
+      <c r="B135" s="40"/>
+      <c r="C135" s="40"/>
     </row>
     <row r="136" ht="17" customHeight="1" spans="2:3">
-      <c r="B136" s="47"/>
-      <c r="C136" s="47"/>
+      <c r="B136" s="40"/>
+      <c r="C136" s="40"/>
     </row>
     <row r="137" ht="17" customHeight="1" spans="2:3">
-      <c r="B137" s="47"/>
-      <c r="C137" s="47"/>
+      <c r="B137" s="40"/>
+      <c r="C137" s="40"/>
     </row>
     <row r="138" ht="17" customHeight="1" spans="2:3">
-      <c r="B138" s="47"/>
-      <c r="C138" s="47"/>
+      <c r="B138" s="40"/>
+      <c r="C138" s="40"/>
     </row>
     <row r="139" ht="17" customHeight="1" spans="2:3">
-      <c r="B139" s="47"/>
-      <c r="C139" s="47"/>
+      <c r="B139" s="40"/>
+      <c r="C139" s="40"/>
     </row>
     <row r="140" ht="17" customHeight="1" spans="2:3">
-      <c r="B140" s="47"/>
-      <c r="C140" s="47"/>
+      <c r="B140" s="40"/>
+      <c r="C140" s="40"/>
     </row>
     <row r="141" ht="17" customHeight="1" spans="2:3">
-      <c r="B141" s="47"/>
-      <c r="C141" s="47"/>
+      <c r="B141" s="40"/>
+      <c r="C141" s="40"/>
     </row>
     <row r="142" ht="17" customHeight="1"/>
     <row r="143" ht="17" customHeight="1"/>

--- a/Plans/总体开发计划.xlsx
+++ b/Plans/总体开发计划.xlsx
@@ -508,7 +508,7 @@
     <t>商品详情页选择类型与加入购物车</t>
   </si>
   <si>
-    <t xml:space="preserve">购物车商品展示 删除、数量、金额计算 </t>
+    <t xml:space="preserve">购物车商品展示 删除、数量、金额计算  </t>
   </si>
 </sst>
 </file>
